--- a/raw/Sample Celebrity.xlsx
+++ b/raw/Sample Celebrity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\Desktop\Data Collection\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C104EA-40B5-488A-944B-6C51B387B720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71894256-DD1B-4826-910D-ABEB7366E87F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11976" yWindow="5976" windowWidth="27636" windowHeight="16680" xr2:uid="{F2FA25D1-1EB0-B647-A5AE-83E5B8046426}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>2PM 준케이</t>
   </si>
   <si>
-    <t>김도균</t>
+    <t>82메이저 김도균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
